--- a/_resource/excel/P-排行-排行配置-(框架定义,策划填写).xlsx
+++ b/_resource/excel/P-排行-排行配置-(框架定义,策划填写).xlsx
@@ -17,7 +17,7 @@
   <definedNames>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="144525" iterate="1" concurrentCalc="0"/>
 </workbook>
 </file>
 
@@ -34,6 +34,7 @@
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>PCC:</t>
@@ -42,6 +43,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -58,6 +60,7 @@
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>PCC:</t>
@@ -66,6 +69,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -80,6 +84,7 @@
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>PCC:</t>
@@ -93,6 +98,7 @@
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>PCC:</t>
@@ -101,6 +107,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -163,9 +170,6 @@
   </si>
   <si>
     <t>ShowData(string)</t>
-  </si>
-  <si>
-    <t>basic:grade:1000000,player:kill:1000000</t>
   </si>
   <si>
     <t>id,name</t>
@@ -193,6 +197,7 @@
         <sz val="9"/>
         <color rgb="FFFF0000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>(int)</t>
@@ -201,6 +206,10 @@
   </si>
   <si>
     <t>1</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>basic:0:grade:1000000,player:0:kill:1000000</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -219,29 +228,34 @@
       <sz val="9"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
       <color rgb="FFFF0000"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
       <color indexed="8"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -757,8 +771,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
@@ -808,7 +822,7 @@
         <v>6</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>7</v>
@@ -854,7 +868,7 @@
         <v>12</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G4" s="2" t="s">
         <v>13</v>
@@ -877,16 +891,16 @@
         <v>100</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G5" s="3">
         <v>0</v>
       </c>
       <c r="H5" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="I5" s="3" t="s">
         <v>16</v>
-      </c>
-      <c r="I5" s="3" t="s">
-        <v>17</v>
       </c>
     </row>
   </sheetData>
